--- a/data.xlsx
+++ b/data.xlsx
@@ -1,46 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmoss7/Desktop/phase2_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackhayley/PycharmProjects/pyxl2sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38273D-986F-E84E-A047-17748EEAA734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A35965E-4579-F04A-84D3-EEBA0023509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="940" windowWidth="29780" windowHeight="14940" activeTab="3" xr2:uid="{B8F2E950-D5D2-C646-8BA5-DD2E1BDFCEB7}"/>
+    <workbookView xWindow="140" yWindow="940" windowWidth="29780" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="airplanes" sheetId="22" r:id="rId1"/>
-    <sheet name="airports" sheetId="1" r:id="rId2"/>
-    <sheet name="locations" sheetId="13" r:id="rId3"/>
-    <sheet name="persons" sheetId="14" r:id="rId4"/>
-    <sheet name="flights" sheetId="8" r:id="rId5"/>
+    <sheet name="airplanes" sheetId="1" r:id="rId1"/>
+    <sheet name="airports" sheetId="2" r:id="rId2"/>
+    <sheet name="locations" sheetId="3" r:id="rId3"/>
+    <sheet name="persons" sheetId="4" r:id="rId4"/>
+    <sheet name="flights" sheetId="5" r:id="rId5"/>
     <sheet name="routes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="603">
   <si>
+    <t>airlineID</t>
+  </si>
+  <si>
+    <t>tail_num</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>plane_type</t>
+  </si>
+  <si>
+    <t>skids</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>jets</t>
+  </si>
+  <si>
+    <t>airline_revenue</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>n106js</t>
+  </si>
+  <si>
+    <t>plane_1</t>
+  </si>
+  <si>
+    <t>jet</t>
+  </si>
+  <si>
+    <t>n110jn</t>
+  </si>
+  <si>
+    <t>n127js</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>n330ss</t>
+  </si>
+  <si>
+    <t>n380sd</t>
+  </si>
+  <si>
+    <t>plane_5</t>
+  </si>
+  <si>
+    <t>British Airways</t>
+  </si>
+  <si>
+    <t>n616lt</t>
+  </si>
+  <si>
+    <t>plane_6</t>
+  </si>
+  <si>
+    <t>n517ly</t>
+  </si>
+  <si>
+    <t>plane_7</t>
+  </si>
+  <si>
+    <t>Lufthansa</t>
+  </si>
+  <si>
+    <t>n620la</t>
+  </si>
+  <si>
+    <t>plane_8</t>
+  </si>
+  <si>
+    <t>n401fj</t>
+  </si>
+  <si>
+    <t>n653fk</t>
+  </si>
+  <si>
+    <t>Air_France</t>
+  </si>
+  <si>
+    <t>n118fm</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>n815pw</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>n161fk</t>
+  </si>
+  <si>
+    <t>plane_13</t>
+  </si>
+  <si>
+    <t>n337as</t>
+  </si>
+  <si>
+    <t>n256ap</t>
+  </si>
+  <si>
+    <t>Ryanair</t>
+  </si>
+  <si>
+    <t>n156sq</t>
+  </si>
+  <si>
+    <t>n451fi</t>
+  </si>
+  <si>
+    <t>n341eb</t>
+  </si>
+  <si>
+    <t>plane_18</t>
+  </si>
+  <si>
+    <t>n353kz</t>
+  </si>
+  <si>
+    <t>Japan Airlines</t>
+  </si>
+  <si>
+    <t>n305fv</t>
+  </si>
+  <si>
+    <t>plane_20</t>
+  </si>
+  <si>
+    <t>n443wu</t>
+  </si>
+  <si>
+    <t>China Southern Airlines</t>
+  </si>
+  <si>
+    <t>n454gq</t>
+  </si>
+  <si>
+    <t>n249yk</t>
+  </si>
+  <si>
+    <t>Korean Air Lines</t>
+  </si>
+  <si>
+    <t>n180co</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>n448cs</t>
+  </si>
+  <si>
+    <t>n225sb</t>
+  </si>
+  <si>
+    <t>n553qn</t>
+  </si>
+  <si>
     <t>airportID</t>
   </si>
   <si>
@@ -53,57 +210,372 @@
     <t>state</t>
   </si>
   <si>
-    <t>locationID</t>
+    <t>country_code</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
+    <t>Atlanta Hartsfield_Jackson International</t>
+  </si>
+  <si>
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>port_1</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>Dubai International</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Al Garhoud</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>port_2</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>Tokyo International Haneda</t>
+  </si>
+  <si>
+    <t>Ota City</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>port_3</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>London Heathrow</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>port_4</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Istanbul International</t>
+  </si>
+  <si>
+    <t>Arnavutkoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istanbul </t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>DFW</t>
   </si>
   <si>
+    <t>Dallas_Fort Worth International</t>
+  </si>
+  <si>
     <t>Dallas</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>port_6</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Guangzhou International</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>port_7</t>
+  </si>
+  <si>
     <t>DEN</t>
   </si>
   <si>
+    <t>Denver International</t>
+  </si>
+  <si>
     <t>Denver</t>
   </si>
   <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>Los Angeles International</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
     <t>ORD</t>
   </si>
   <si>
+    <t>O_Hare International</t>
+  </si>
+  <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>LAX</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>port_10</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Amsterdam Schipol International</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Haarlemmermeer</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>port_11</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>Paris Charles de Gaulle</t>
+  </si>
+  <si>
+    <t>Roissy_en_France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>port_12</t>
+  </si>
+  <si>
+    <t>Frankfurt International</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Frankfurt_Rhine_Main</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>port_13</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Madrid Adolfo Suarez_Barajas</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barajas</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>port_14</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>Barcelona International</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>port_15</t>
+  </si>
+  <si>
+    <t>FCO</t>
+  </si>
+  <si>
+    <t>Rome Fiumicino</t>
+  </si>
+  <si>
+    <t>Fiumicino</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>port_16</t>
+  </si>
+  <si>
+    <t>LGW</t>
+  </si>
+  <si>
+    <t>London Gatwick</t>
+  </si>
+  <si>
+    <t>port_17</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>Munich International</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>port_18</t>
+  </si>
+  <si>
+    <t>MDW</t>
+  </si>
+  <si>
+    <t>Chicago Midway International</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>George Bush Intercontinental</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>port_20</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>William P_Hobby International</t>
+  </si>
+  <si>
+    <t>port_21</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>Narita International</t>
+  </si>
+  <si>
+    <t>Narita</t>
+  </si>
+  <si>
+    <t>Chiba</t>
+  </si>
+  <si>
+    <t>port_22</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>Berlin Brandenburg Willy Brandt International</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Schonefeld</t>
+  </si>
+  <si>
+    <t>port_23</t>
+  </si>
+  <si>
+    <t>LGA</t>
   </si>
   <si>
     <t>LaGuardia Airport</t>
   </si>
   <si>
-    <t>LGA</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
     <t xml:space="preserve">John F_Kennedy International Airport </t>
   </si>
   <si>
-    <t>JFK</t>
-  </si>
-  <si>
-    <t>MDW</t>
-  </si>
-  <si>
     <t>DCA</t>
   </si>
   <si>
@@ -113,33 +585,30 @@
     <t>Washington DC</t>
   </si>
   <si>
+    <t>VA</t>
+  </si>
+  <si>
     <t>IAD</t>
   </si>
   <si>
     <t>Washington Dulles International Airport</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>Dallas Love Field</t>
   </si>
   <si>
-    <t>DAL</t>
+    <t>TX</t>
   </si>
   <si>
     <t>George Bush Intercontinental Houston Airport</t>
   </si>
   <si>
-    <t>IAH</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>William P_Hobby Airport</t>
   </si>
   <si>
-    <t>HOU</t>
-  </si>
-  <si>
     <t>BHM</t>
   </si>
   <si>
@@ -149,64 +618,88 @@
     <t>Birmingham</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
     <t>MRI</t>
   </si>
   <si>
     <t>Merrill Field</t>
   </si>
   <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
     <t>Ted Stevens Anchorage International Airport</t>
   </si>
   <si>
-    <t>ANC</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
+    <t>PHX</t>
   </si>
   <si>
     <t>Phoenix Sky Harbor International Airport</t>
   </si>
   <si>
-    <t>PHX</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
     <t>Bill and Hillary Clinton National Airport</t>
   </si>
   <si>
-    <t>LIT</t>
-  </si>
-  <si>
     <t>Little Rock</t>
   </si>
   <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
     <t>Bradley International Airport</t>
   </si>
   <si>
     <t>Hartford</t>
   </si>
   <si>
-    <t>BDL</t>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ILG</t>
   </si>
   <si>
     <t>Wilmington Airport</t>
   </si>
   <si>
-    <t>ILG</t>
-  </si>
-  <si>
     <t>Wilmington</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
     <t>Orlando International Airport</t>
   </si>
   <si>
     <t>Orlando</t>
   </si>
   <si>
-    <t>MCO</t>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>HNL</t>
   </si>
   <si>
     <t>Daniel K. Inouye International Airport</t>
@@ -215,63 +708,81 @@
     <t>Honolulu Oahu</t>
   </si>
   <si>
-    <t>HNL</t>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>BOI</t>
   </si>
   <si>
     <t xml:space="preserve">Boise Airport </t>
   </si>
   <si>
-    <t>BOI</t>
-  </si>
-  <si>
     <t>Boise</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>Indianapolis International Airport</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>Indianapolis</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
     <t>Des Moines International Airport</t>
   </si>
   <si>
     <t>Des Moines</t>
   </si>
   <si>
-    <t>DSM</t>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ICT</t>
   </si>
   <si>
     <t xml:space="preserve">Wichita Dwight D_Eisenhower National Airport </t>
   </si>
   <si>
-    <t>ICT</t>
-  </si>
-  <si>
     <t>Wichita</t>
   </si>
   <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>SDF</t>
+  </si>
+  <si>
     <t>Louisville International Airport</t>
   </si>
   <si>
-    <t>SDF</t>
-  </si>
-  <si>
     <t>Louisville</t>
   </si>
   <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>MSY</t>
+  </si>
+  <si>
     <t>Louis Armstrong New Orleans International Airport</t>
   </si>
   <si>
-    <t>MSY</t>
-  </si>
-  <si>
     <t>New Orleans</t>
   </si>
   <si>
+    <t>LA</t>
+  </si>
+  <si>
     <t>PWM</t>
   </si>
   <si>
@@ -281,391 +792,400 @@
     <t>Portland</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>BWI</t>
+  </si>
+  <si>
     <t>Baltimore_Washington International Airport</t>
   </si>
   <si>
-    <t>BWI</t>
-  </si>
-  <si>
     <t>Baltimore</t>
   </si>
   <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>General Edward Lawrence Logan International Airport</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>DTW</t>
+  </si>
+  <si>
     <t>Detroit Metro Wayne County Airport</t>
   </si>
   <si>
-    <t>DTW</t>
-  </si>
-  <si>
     <t>Detroit</t>
   </si>
   <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
     <t>Minneapolis_St_Paul International Wold_Chamberlain Airport</t>
   </si>
   <si>
-    <t>MSP</t>
-  </si>
-  <si>
     <t>Minneapolis Saint Paul</t>
   </si>
   <si>
+    <t>MN</t>
+  </si>
+  <si>
     <t>JAN</t>
   </si>
   <si>
+    <t>Jackson_Medgar Wiley Evers International Airport</t>
+  </si>
+  <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>Jackson_Medgar Wiley Evers International Airport</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>STL</t>
   </si>
   <si>
     <t>St_Louis Lambert International Airport</t>
   </si>
   <si>
-    <t>STL</t>
-  </si>
-  <si>
     <t>Saint Louis</t>
   </si>
   <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>BZN</t>
+  </si>
+  <si>
     <t>Bozeman Yellowstone International Airport</t>
   </si>
   <si>
-    <t>BZN</t>
-  </si>
-  <si>
     <t>Bozeman</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>OMA</t>
+  </si>
+  <si>
     <t>Eppley Airfield</t>
   </si>
   <si>
-    <t>OMA</t>
-  </si>
-  <si>
     <t>Omaha</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
     <t>Harry Reid International Airport</t>
   </si>
   <si>
-    <t>LAS</t>
-  </si>
-  <si>
     <t>Las Vegas</t>
   </si>
   <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>MHT</t>
+  </si>
+  <si>
     <t>Manchester_Boston Regional Airport</t>
   </si>
   <si>
-    <t>MHT</t>
-  </si>
-  <si>
     <t>Manchester</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>EWR</t>
+  </si>
+  <si>
     <t>Newark Liberty International Airport</t>
   </si>
   <si>
-    <t>EWR</t>
-  </si>
-  <si>
     <t>Newark</t>
   </si>
   <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>ABQ</t>
+  </si>
+  <si>
     <t>Albuquerque International Sunport</t>
   </si>
   <si>
-    <t>ABQ</t>
-  </si>
-  <si>
     <t>Albuquerque</t>
   </si>
   <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
     <t>Long Island MacArthur Airport</t>
   </si>
   <si>
-    <t>ISP</t>
-  </si>
-  <si>
     <t>New York Islip</t>
   </si>
   <si>
+    <t>CLT</t>
+  </si>
+  <si>
     <t>Charlotte Douglas International Airport</t>
   </si>
   <si>
-    <t>CLT</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
     <t>Hector International Airport</t>
   </si>
   <si>
-    <t>FAR</t>
-  </si>
-  <si>
     <t>Fargo</t>
   </si>
   <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>Cleveland Hopkins International Airport</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>Cleveland</t>
   </si>
   <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
     <t>Will Rogers World Airport</t>
   </si>
   <si>
-    <t>OKC</t>
-  </si>
-  <si>
     <t>Oklahoma City</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
     <t>Portland International Airport</t>
   </si>
   <si>
-    <t>PDX</t>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PHL</t>
   </si>
   <si>
     <t>Philadelphia International Airport</t>
   </si>
   <si>
-    <t>PHL</t>
-  </si>
-  <si>
     <t>Philadelphia</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PVD</t>
+  </si>
+  <si>
     <t>Rhode Island T_F_Green International Airport</t>
   </si>
   <si>
-    <t>PVD</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
     <t>Charleston International Airport</t>
   </si>
   <si>
-    <t>CHS</t>
-  </si>
-  <si>
     <t>Charleston</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
     <t>Joe Foss Field</t>
   </si>
   <si>
-    <t>FSD</t>
-  </si>
-  <si>
     <t>Sioux Falls</t>
   </si>
   <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
     <t>Nashville International Airport</t>
   </si>
   <si>
-    <t>BNA</t>
-  </si>
-  <si>
     <t>Nashville</t>
   </si>
   <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SLC</t>
+  </si>
+  <si>
     <t>Salt Lake City International Airport</t>
   </si>
   <si>
-    <t>SLC</t>
-  </si>
-  <si>
     <t>Salt Lake City</t>
   </si>
   <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>BTV</t>
+  </si>
+  <si>
     <t>Burlington International Airport</t>
   </si>
   <si>
-    <t>BTV</t>
-  </si>
-  <si>
     <t>Burlington</t>
   </si>
   <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
     <t>Seattle–Tacoma International Airport</t>
   </si>
   <si>
-    <t>SEA</t>
+    <t>Seattle Tacoma</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>King County International Airport</t>
   </si>
   <si>
     <t>Seattle</t>
   </si>
   <si>
-    <t>Seattle Tacoma</t>
-  </si>
-  <si>
-    <t>King County International Airport</t>
-  </si>
-  <si>
-    <t>BFI</t>
+    <t>CRW</t>
   </si>
   <si>
     <t>Yeager Airport</t>
   </si>
   <si>
-    <t>CRW</t>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>MKE</t>
   </si>
   <si>
     <t>Milwaukee Mitchell International Airport</t>
   </si>
   <si>
-    <t>MKE</t>
-  </si>
-  <si>
     <t>Milwaukee</t>
   </si>
   <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
     <t>Jackson Hole Airport</t>
   </si>
   <si>
-    <t>JAC</t>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>GUM</t>
   </si>
   <si>
     <t>Antonio B_Won Pat International Airport</t>
   </si>
   <si>
-    <t>GUM</t>
-  </si>
-  <si>
     <t>Agana Tamuning</t>
   </si>
   <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>GSN</t>
+  </si>
+  <si>
     <t>Saipan International Airport</t>
   </si>
   <si>
-    <t>GSN</t>
-  </si>
-  <si>
     <t>Obyan Saipan Island</t>
   </si>
   <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>SJU</t>
+  </si>
+  <si>
     <t>Luis Munoz Marin International Airport</t>
   </si>
   <si>
     <t>San Juan Carolina</t>
   </si>
   <si>
-    <t>SJU</t>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
   <si>
     <t>Cyril E_King Airport</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>Charlotte Amalie Saint Thomas</t>
   </si>
   <si>
-    <t>airlineID</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>United</t>
-  </si>
-  <si>
-    <t>Lufthansa</t>
-  </si>
-  <si>
-    <t>Air_France</t>
-  </si>
-  <si>
-    <t>tail_num</t>
-  </si>
-  <si>
-    <t>seat capacity</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>skids</t>
-  </si>
-  <si>
-    <t>props</t>
-  </si>
-  <si>
-    <t>jets</t>
-  </si>
-  <si>
-    <t>plane_type</t>
-  </si>
-  <si>
-    <t>prop</t>
-  </si>
-  <si>
-    <t>jet</t>
-  </si>
-  <si>
-    <t>n106js</t>
-  </si>
-  <si>
-    <t>n110jn</t>
-  </si>
-  <si>
-    <t>n127js</t>
-  </si>
-  <si>
-    <t>n330ss</t>
-  </si>
-  <si>
-    <t>n380sd</t>
-  </si>
-  <si>
-    <t>n616lt</t>
-  </si>
-  <si>
-    <t>n620la</t>
-  </si>
-  <si>
-    <t>n401fj</t>
-  </si>
-  <si>
-    <t>n653fk</t>
-  </si>
-  <si>
-    <t>n517ly</t>
-  </si>
-  <si>
-    <t>n118fm</t>
-  </si>
-  <si>
-    <t>n815pw</t>
-  </si>
-  <si>
-    <t>n161fk</t>
-  </si>
-  <si>
-    <t>n337as</t>
-  </si>
-  <si>
-    <t>n256ap</t>
+    <t>VI</t>
   </si>
   <si>
     <t>personID</t>
@@ -689,270 +1209,492 @@
     <t>flying_tail</t>
   </si>
   <si>
+    <t>license_types</t>
+  </si>
+  <si>
     <t>miles</t>
   </si>
   <si>
+    <t>funds</t>
+  </si>
+  <si>
+    <t>vacations</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
     <t>Jeanne</t>
   </si>
   <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>330-12-6907</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>769-60-1266</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>369-22-9505</t>
+  </si>
+  <si>
+    <t>jets, props</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>680-92-5329</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>513-40-4168</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>454-71-7847</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>153-47-8101</t>
+  </si>
+  <si>
+    <t>jets, props, testing</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>598-47-5172</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>865-71-6800</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Pittman</t>
+  </si>
+  <si>
+    <t>250-86-2784</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>386-39-7881</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
     <t>Roxanne</t>
   </si>
   <si>
+    <t>Byrd</t>
+  </si>
+  <si>
+    <t>842-88-1257</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>522-44-3098</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>p22</t>
+  </si>
+  <si>
+    <t>Arlene</t>
+  </si>
+  <si>
+    <t>Massey</t>
+  </si>
+  <si>
+    <t>p23</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>MUC, CDG</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>p26</t>
+  </si>
+  <si>
+    <t>Cheryl</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>p27</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>Luther</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>FCO, LHR</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
     <t>Tanya</t>
   </si>
   <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>750-24-7616</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>FCO, MAD</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>Sonya</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>p37</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <t>FCO, LGW, CDG</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>p39</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
     <t>Kendra</t>
   </si>
   <si>
+    <t>Jacobs</t>
+  </si>
+  <si>
+    <t>776-21-8098</t>
+  </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>p41</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>p42</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>p43</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>p44</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
     <t>Jeff</t>
   </si>
   <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>933-93-2165</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
     <t>Randal</t>
   </si>
   <si>
-    <t>Sonya</t>
+    <t>707-84-4555</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>Owens</t>
+  </si>
+  <si>
+    <t>450-25-5617</t>
+  </si>
+  <si>
+    <t>p8</t>
   </si>
   <si>
     <t>Bennie</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>701-38-2179</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
     <t>Marlene</t>
   </si>
   <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Byrd</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Jacobs</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Parks</t>
-  </si>
-  <si>
-    <t>Owens</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
     <t>Warner</t>
   </si>
   <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Figueroa</t>
-  </si>
-  <si>
-    <t>Dana</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Edna</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Burgess</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Pittman</t>
-  </si>
-  <si>
-    <t>Doug</t>
-  </si>
-  <si>
-    <t>Fowler</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Olson</t>
-  </si>
-  <si>
-    <t>Mona</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Arlene</t>
-  </si>
-  <si>
-    <t>Massey</t>
-  </si>
-  <si>
-    <t>Judith</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Reginald</t>
-  </si>
-  <si>
-    <t>Rhodes</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Cheryl</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Luther</t>
-  </si>
-  <si>
-    <t>Matthews</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>Steele</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Irma</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>Maldonado</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Tracy</t>
-  </si>
-  <si>
-    <t>Hale</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>Simmons</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Glen</t>
-  </si>
-  <si>
-    <t>Kelley</t>
-  </si>
-  <si>
-    <t>Brooke</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>Daryl</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>Willis</t>
-  </si>
-  <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>Angelica</t>
-  </si>
-  <si>
-    <t>Hampton</t>
+    <t>936-44-6941</t>
+  </si>
+  <si>
+    <t>flightID</t>
   </si>
   <si>
     <t>routeID</t>
   </si>
   <si>
-    <t>flightID</t>
-  </si>
-  <si>
     <t>support_airline</t>
   </si>
   <si>
@@ -968,886 +1710,130 @@
     <t>next_time</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>dl_10</t>
+  </si>
+  <si>
+    <t>americas_one</t>
+  </si>
+  <si>
+    <t>in_flight</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>un_38</t>
+  </si>
+  <si>
+    <t>americas_three</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>ba_61</t>
+  </si>
+  <si>
+    <t>americas_two</t>
+  </si>
+  <si>
     <t>on_ground</t>
   </si>
   <si>
-    <t>in_flight</t>
-  </si>
-  <si>
-    <t>330-12-6907</t>
-  </si>
-  <si>
-    <t>842-88-1257</t>
-  </si>
-  <si>
-    <t>750-24-7616</t>
-  </si>
-  <si>
-    <t>776-21-8098</t>
-  </si>
-  <si>
-    <t>933-93-2165</t>
-  </si>
-  <si>
-    <t>707-84-4555</t>
-  </si>
-  <si>
-    <t>450-25-5617</t>
-  </si>
-  <si>
-    <t>701-38-2179</t>
-  </si>
-  <si>
-    <t>936-44-6941</t>
-  </si>
-  <si>
-    <t>769-60-1266</t>
-  </si>
-  <si>
-    <t>369-22-9505</t>
-  </si>
-  <si>
-    <t>680-92-5329</t>
-  </si>
-  <si>
-    <t>513-40-4168</t>
-  </si>
-  <si>
-    <t>454-71-7847</t>
-  </si>
-  <si>
-    <t>153-47-8101</t>
-  </si>
-  <si>
-    <t>598-47-5172</t>
-  </si>
-  <si>
-    <t>865-71-6800</t>
-  </si>
-  <si>
-    <t>250-86-2784</t>
-  </si>
-  <si>
-    <t>386-39-7881</t>
-  </si>
-  <si>
-    <t>522-44-3098</t>
-  </si>
-  <si>
-    <t>p24</t>
-  </si>
-  <si>
-    <t>p25</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p26</t>
-  </si>
-  <si>
-    <t>p27</t>
-  </si>
-  <si>
-    <t>p28</t>
-  </si>
-  <si>
-    <t>p29</t>
-  </si>
-  <si>
-    <t>p30</t>
-  </si>
-  <si>
-    <t>p31</t>
-  </si>
-  <si>
-    <t>p32</t>
-  </si>
-  <si>
-    <t>p33</t>
-  </si>
-  <si>
-    <t>p34</t>
-  </si>
-  <si>
-    <t>p35</t>
-  </si>
-  <si>
-    <t>p36</t>
-  </si>
-  <si>
-    <t>p37</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>p39</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>p16</t>
-  </si>
-  <si>
-    <t>p17</t>
-  </si>
-  <si>
-    <t>p18</t>
-  </si>
-  <si>
-    <t>p19</t>
-  </si>
-  <si>
-    <t>p20</t>
-  </si>
-  <si>
-    <t>p21</t>
-  </si>
-  <si>
-    <t>p22</t>
-  </si>
-  <si>
-    <t>p23</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>plane_1</t>
-  </si>
-  <si>
-    <t>plane_7</t>
-  </si>
-  <si>
-    <t>plane_8</t>
-  </si>
-  <si>
-    <t>port_2</t>
-  </si>
-  <si>
-    <t>port_4</t>
-  </si>
-  <si>
-    <t>port_3</t>
-  </si>
-  <si>
-    <t>port_1</t>
-  </si>
-  <si>
-    <t>p40</t>
-  </si>
-  <si>
-    <t>p41</t>
-  </si>
-  <si>
-    <t>p42</t>
-  </si>
-  <si>
-    <t>p43</t>
-  </si>
-  <si>
-    <t>p44</t>
-  </si>
-  <si>
-    <t>p45</t>
-  </si>
-  <si>
-    <t>port_6</t>
-  </si>
-  <si>
-    <t>port_7</t>
-  </si>
-  <si>
-    <t>port_10</t>
-  </si>
-  <si>
-    <t>port_11</t>
-  </si>
-  <si>
-    <t>port_12</t>
-  </si>
-  <si>
-    <t>port_13</t>
-  </si>
-  <si>
-    <t>port_14</t>
-  </si>
-  <si>
-    <t>port_15</t>
-  </si>
-  <si>
-    <t>port_16</t>
-  </si>
-  <si>
-    <t>port_17</t>
-  </si>
-  <si>
-    <t>port_18</t>
-  </si>
-  <si>
-    <t>port_20</t>
-  </si>
-  <si>
-    <t>port_21</t>
-  </si>
-  <si>
-    <t>port_22</t>
-  </si>
-  <si>
-    <t>plane_5</t>
-  </si>
-  <si>
-    <t>plane_6</t>
-  </si>
-  <si>
-    <t>plane_13</t>
-  </si>
-  <si>
-    <t>n156sq</t>
-  </si>
-  <si>
-    <t>n451fi</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>09:30:00</t>
   </si>
   <si>
+    <t>lf_20</t>
+  </si>
+  <si>
+    <t>euro_north</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
+    <t>km_16</t>
+  </si>
+  <si>
+    <t>euro_south</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
+    <t>ba_51</t>
+  </si>
+  <si>
+    <t>big_europe_loop</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
+    <t>ja_35</t>
+  </si>
+  <si>
+    <t>pacific_rim_tour</t>
+  </si>
+  <si>
+    <t>ry_34</t>
+  </si>
+  <si>
+    <t>germany_local</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
-    <t>British Airways</t>
-  </si>
-  <si>
-    <t>Ryanair</t>
-  </si>
-  <si>
-    <t>Japan Airlines</t>
-  </si>
-  <si>
-    <t>KLM</t>
-  </si>
-  <si>
-    <t>China Southern Airlines</t>
-  </si>
-  <si>
-    <t>Korean Air Lines</t>
-  </si>
-  <si>
-    <t>DXB</t>
-  </si>
-  <si>
-    <t>Dubai International</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Denver International</t>
-  </si>
-  <si>
-    <t>Los Angeles International</t>
-  </si>
-  <si>
-    <t>O_Hare International</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>Tokyo International Haneda</t>
-  </si>
-  <si>
-    <t>LHR</t>
-  </si>
-  <si>
-    <t>London Heathrow</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>Istanbul International</t>
-  </si>
-  <si>
-    <t>Guangzhou</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>AMS</t>
-  </si>
-  <si>
-    <t>Paris Charles de Gaulle</t>
-  </si>
-  <si>
-    <t>CDG</t>
-  </si>
-  <si>
-    <t>Frankfurt International</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Rome Fiumicino</t>
-  </si>
-  <si>
-    <t>FCO</t>
-  </si>
-  <si>
-    <t>London Gatwick</t>
-  </si>
-  <si>
-    <t>LGW</t>
-  </si>
-  <si>
-    <t>MUC</t>
-  </si>
-  <si>
-    <t>Munich International</t>
-  </si>
-  <si>
-    <t>William P_Hobby International</t>
-  </si>
-  <si>
-    <t>George Bush Intercontinental</t>
-  </si>
-  <si>
-    <t>Chicago Midway International</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Ota City</t>
-  </si>
-  <si>
-    <t>Narita International</t>
-  </si>
-  <si>
-    <t>Narita</t>
-  </si>
-  <si>
-    <t>Chiba</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Arnavutkoy</t>
-  </si>
-  <si>
-    <t>Guangdong</t>
-  </si>
-  <si>
-    <t>Al Garhoud</t>
-  </si>
-  <si>
-    <t>Amsterdam Schipol International</t>
-  </si>
-  <si>
-    <t>Haarlemmermeer</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>Roissy_en_France</t>
-  </si>
-  <si>
-    <t>Madrid Adolfo Suarez_Barajas</t>
-  </si>
-  <si>
-    <t>Atlanta Hartsfield_Jackson International</t>
-  </si>
-  <si>
-    <t>Dallas_Fort Worth International</t>
-  </si>
-  <si>
-    <t>Frankfurt_Rhine_Main</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Barajas</t>
-  </si>
-  <si>
-    <t>Barcelona International</t>
-  </si>
-  <si>
-    <t>Catalonia</t>
-  </si>
-  <si>
-    <t>Fiumicino</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Munich</t>
-  </si>
-  <si>
-    <t>Bavaria</t>
-  </si>
-  <si>
-    <t>NRT</t>
-  </si>
-  <si>
-    <t>n341eb</t>
-  </si>
-  <si>
-    <t>plane_18</t>
-  </si>
-  <si>
-    <t>n353kz</t>
-  </si>
-  <si>
-    <t>n305fv</t>
-  </si>
-  <si>
-    <t>plane_20</t>
-  </si>
-  <si>
-    <t>n443wu</t>
-  </si>
-  <si>
-    <t>n454gq</t>
-  </si>
-  <si>
-    <t>n249yk</t>
-  </si>
-  <si>
-    <t>n180co</t>
-  </si>
-  <si>
-    <t>n448cs</t>
-  </si>
-  <si>
-    <t>n225sb</t>
-  </si>
-  <si>
-    <t>n553qn</t>
-  </si>
-  <si>
-    <t>BER</t>
-  </si>
-  <si>
-    <t>Berlin Brandenburg Willy Brandt International</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Schonefeld</t>
-  </si>
-  <si>
-    <t>port_23</t>
-  </si>
-  <si>
-    <t>big_europe_loop</t>
-  </si>
-  <si>
-    <t>americas_one</t>
-  </si>
-  <si>
-    <t>americas_two</t>
-  </si>
-  <si>
-    <t>americas_three</t>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>americas_hub_exchange</t>
+  </si>
+  <si>
+    <t>leg_4:ATL--&gt;ORD:600mi</t>
+  </si>
+  <si>
+    <t>leg_2:ATL--&gt;AMS:3900mi, leg_1:AMS--&gt;BER:400mi</t>
+  </si>
+  <si>
+    <t>leg_31:ORD--&gt;CDG:3700mi, leg_14:CDG--&gt;MUC:400mi</t>
+  </si>
+  <si>
+    <t>leg_3:ATL--&gt;LHR:3700mi, leg_22:LHR--&gt;BER:600mi</t>
+  </si>
+  <si>
+    <t>leg_23:LHR--&gt;MUC:500mi, leg_29:MUC--&gt;FCO:400mi, leg_16:FCO--&gt;MAD:800mi, leg_25:MAD--&gt;CDG:600mi, leg_13:CDG--&gt;LHR:200mi</t>
+  </si>
+  <si>
+    <t>leg_16:FCO--&gt;MAD:800mi, leg_24:MAD--&gt;BCN:300mi, leg_5:BCN--&gt;CDG:500mi, leg_14:CDG--&gt;MUC:400mi, leg_27:MUC--&gt;BER:300mi, leg_8:BER--&gt;LGW:600mi</t>
+  </si>
+  <si>
+    <t>leg_21:LGW--&gt;BER:600mi, leg_9:BER--&gt;MUC:300mi, leg_28:MUC--&gt;CDG:400mi, leg_11:CDG--&gt;BCN:500mi, leg_6:BCN--&gt;MAD:300mi, leg_26:MAD--&gt;FCO:800mi</t>
+  </si>
+  <si>
+    <t>leg_9:BER--&gt;MUC:300mi, leg_30:MUC--&gt;FRA:200mi, leg_17:FRA--&gt;BER:300mi</t>
+  </si>
+  <si>
+    <t>leg_7:BER--&gt;CAN:4700mi, leg_10:CAN--&gt;HND:1600mi, leg_18:HND--&gt;NRT:100mi</t>
+  </si>
+  <si>
+    <t>south_euro_loop</t>
+  </si>
+  <si>
+    <t>leg_16:FCO--&gt;MAD:800mi, leg_24:MAD--&gt;BCN:300mi, leg_5:BCN--&gt;CDG:500mi, leg_12:CDG--&gt;FCO:600mi</t>
   </si>
   <si>
     <t>texas_local</t>
   </si>
   <si>
-    <t>germany_local</t>
-  </si>
-  <si>
-    <t>Guangzhou International</t>
-  </si>
-  <si>
-    <t>pacific_rim_tour</t>
-  </si>
-  <si>
-    <t>euro_north</t>
-  </si>
-  <si>
-    <t>euro_south</t>
-  </si>
-  <si>
-    <t>south_euro_loop</t>
-  </si>
-  <si>
-    <t>americas_hub_exchange</t>
-  </si>
-  <si>
-    <t>un_38</t>
-  </si>
-  <si>
-    <t>ba_61</t>
-  </si>
-  <si>
-    <t>lf_20</t>
-  </si>
-  <si>
-    <t>dl_10</t>
-  </si>
-  <si>
-    <t>km_16</t>
-  </si>
-  <si>
-    <t>ba_51</t>
-  </si>
-  <si>
-    <t>ja_35</t>
-  </si>
-  <si>
-    <t>ry_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istanbul </t>
-  </si>
-  <si>
-    <t>country_code</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>funds</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>license_types</t>
-  </si>
-  <si>
-    <t>vacations</t>
-  </si>
-  <si>
-    <t>jets, props</t>
-  </si>
-  <si>
-    <t>jets, props, testing</t>
-  </si>
-  <si>
-    <t>MUC, CDG</t>
-  </si>
-  <si>
-    <t>FCO, LHR</t>
-  </si>
-  <si>
-    <t>FCO, MAD</t>
-  </si>
-  <si>
-    <t>FCO, LGW, CDG</t>
-  </si>
-  <si>
-    <t>legs</t>
-  </si>
-  <si>
-    <t>leg_4:ATL--&gt;ORD:600mi</t>
-  </si>
-  <si>
-    <t>leg_2:ATL--&gt;AMS:3900mi, leg_1:AMS--&gt;BER:400mi</t>
-  </si>
-  <si>
-    <t>leg_31:ORD--&gt;CDG:3700mi, leg_14:CDG--&gt;MUC:400mi</t>
-  </si>
-  <si>
-    <t>leg_3:ATL--&gt;LHR:3700mi, leg_22:LHR--&gt;BER:600mi</t>
-  </si>
-  <si>
-    <t>leg_23:LHR--&gt;MUC:500mi, leg_29:MUC--&gt;FCO:400mi, leg_16:FCO--&gt;MAD:800mi, leg_25:MAD--&gt;CDG:600mi, leg_13:CDG--&gt;LHR:200mi</t>
-  </si>
-  <si>
-    <t>leg_16:FCO--&gt;MAD:800mi, leg_24:MAD--&gt;BCN:300mi, leg_5:BCN--&gt;CDG:500mi, leg_14:CDG--&gt;MUC:400mi, leg_27:MUC--&gt;BER:300mi, leg_8:BER--&gt;LGW:600mi</t>
-  </si>
-  <si>
-    <t>leg_21:LGW--&gt;BER:600mi, leg_9:BER--&gt;MUC:300mi, leg_28:MUC--&gt;CDG:400mi, leg_11:CDG--&gt;BCN:500mi, leg_6:BCN--&gt;MAD:300mi, leg_26:MAD--&gt;FCO:800mi</t>
-  </si>
-  <si>
-    <t>leg_9:BER--&gt;MUC:300mi, leg_30:MUC--&gt;FRA:200mi, leg_17:FRA--&gt;BER:300mi</t>
-  </si>
-  <si>
-    <t>leg_7:BER--&gt;CAN:4700mi, leg_10:CAN--&gt;HND:1600mi, leg_18:HND--&gt;NRT:100mi</t>
-  </si>
-  <si>
-    <t>leg_16:FCO--&gt;MAD:800mi, leg_24:MAD--&gt;BCN:300mi, leg_5:BCN--&gt;CDG:500mi, leg_12:CDG--&gt;FCO:600mi</t>
-  </si>
-  <si>
     <t>leg_15:DFW--&gt;IAH:200mi, leg_20:IAH--&gt;HOU:100mi, leg_19:HOU--&gt;DFW:300mi</t>
   </si>
   <si>
-    <t>airline_revenue</t>
+    <t>seat_capacity</t>
   </si>
 </sst>
 </file>
@@ -2221,10 +2207,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B42C10A-9995-2F4A-AE5F-FECB10B57577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39"/>
   <cols>
@@ -2238,47 +2226,49 @@
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>602</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -2287,10 +2277,10 @@
         <v>800</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -2302,10 +2292,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -2314,7 +2304,7 @@
         <v>800</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -2326,10 +2316,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -2338,7 +2328,7 @@
         <v>600</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
@@ -2350,10 +2340,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2362,7 +2352,7 @@
         <v>800</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -2374,10 +2364,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2386,10 +2376,10 @@
         <v>400</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -2401,10 +2391,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -2413,10 +2403,10 @@
         <v>600</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>448</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -2428,10 +2418,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -2440,10 +2430,10 @@
         <v>600</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>421</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -2455,10 +2445,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -2467,10 +2457,10 @@
         <v>800</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -2482,10 +2472,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -2500,10 +2490,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -2512,7 +2502,7 @@
         <v>600</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -2524,10 +2514,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -2536,7 +2526,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>0</v>
@@ -2551,10 +2541,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -2563,7 +2553,7 @@
         <v>400</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -2575,10 +2565,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2587,10 +2577,10 @@
         <v>600</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -2602,10 +2592,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -2614,7 +2604,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -2626,10 +2616,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -2638,7 +2628,7 @@
         <v>300</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>0</v>
@@ -2653,10 +2643,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2665,7 +2655,7 @@
         <v>600</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2677,10 +2667,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2689,7 +2679,7 @@
         <v>600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
@@ -2701,10 +2691,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2713,10 +2703,10 @@
         <v>400</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>531</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G19" s="4" t="b">
         <v>1</v>
@@ -2731,10 +2721,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>532</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2743,7 +2733,7 @@
         <v>400</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="b">
         <v>1</v>
@@ -2758,10 +2748,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
@@ -2770,10 +2760,10 @@
         <v>400</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -2785,10 +2775,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>535</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -2797,7 +2787,7 @@
         <v>800</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -2809,10 +2799,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>463</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -2827,10 +2817,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>463</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>537</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -2839,7 +2829,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G24" s="4" t="b">
         <v>0</v>
@@ -2854,10 +2844,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>464</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>538</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2866,7 +2856,7 @@
         <v>600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -2878,10 +2868,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -2890,7 +2880,7 @@
         <v>400</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4" t="b">
         <v>1</v>
@@ -2905,10 +2895,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -2917,7 +2907,7 @@
         <v>800</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
@@ -2929,10 +2919,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>541</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2941,7 +2931,7 @@
         <v>800</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
@@ -2957,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF1AE41-B22E-9541-9AD7-13AD77B0569E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2969,1286 +2959,1287 @@
     <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="33.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>467</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>466</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>510</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>570</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>476</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>502</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>572</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>480</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>508</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>567</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>573</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>519</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>468</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>433</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>553</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>509</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>574</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>472</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>473</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>483</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>513</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>512</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>575</v>
+        <v>120</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>436</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>485</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>484</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>516</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>514</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>486</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>517</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>521</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>522</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>577</v>
+        <v>137</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>439</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>489</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>523</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>490</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>577</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>491</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>525</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>526</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>578</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>493</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>572</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>496</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>527</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>528</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>498</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>468</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>444</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>497</v>
+        <v>165</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>468</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>569</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>445</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>529</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>503</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>504</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>505</v>
+        <v>170</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>446</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>543</v>
+        <v>173</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>544</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>545</v>
+        <v>175</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>546</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>371</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>371</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>374</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>374</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>377</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>378</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>380</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>382</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>383</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>385</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>386</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>388</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>390</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>396</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>395</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>292</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>399</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>371</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>408</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>163</v>
+        <v>364</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>166</v>
+        <v>368</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>380</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4257,396 +4248,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323D82ED-B653-7449-97CD-101CC311BD57}">
-  <dimension ref="A1:A108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39"/>
   <cols>
     <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>439</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>444</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>436</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>546</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>433</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>445</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>446</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>448</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>531</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4654,10 +4406,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A53CB7A-9AC5-8342-B1C5-F637D64E3F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39"/>
   <cols>
@@ -4666,568 +4420,569 @@
     <col min="4" max="4" width="27.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.83203125" style="1" customWidth="1"/>
     <col min="6" max="12" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>582</v>
+        <v>394</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>395</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>579</v>
+        <v>396</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>583</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="F2" s="1">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>404</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="F4" s="1">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>420</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>421</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="F7" s="1">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>424</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>425</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="F8" s="1">
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>585</v>
+        <v>427</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="F9" s="1">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="F10" s="1">
         <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="39" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="F11" s="1">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>441</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>329</v>
+        <v>443</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>312</v>
+        <v>447</v>
       </c>
       <c r="F13" s="1">
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>256</v>
+        <v>450</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
       <c r="F14" s="1">
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="39" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>452</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1">
         <v>771</v>
@@ -5236,36 +4991,36 @@
         <v>700</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>483</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>456</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>260</v>
+        <v>457</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J16" s="1">
         <v>374</v>
@@ -5274,36 +5029,36 @@
         <v>200</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>483</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="39" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>460</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>414</v>
@@ -5312,36 +5067,36 @@
         <v>400</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>461</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>264</v>
+        <v>463</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J18" s="1">
         <v>292</v>
@@ -5350,36 +5105,36 @@
         <v>500</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>586</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>265</v>
+        <v>466</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1">
         <v>390</v>
@@ -5388,36 +5143,36 @@
         <v>300</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>267</v>
+        <v>469</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J20" s="1">
         <v>302</v>
@@ -5426,36 +5181,36 @@
         <v>600</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="39" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>471</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>269</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
         <v>470</v>
@@ -5464,36 +5219,36 @@
         <v>400</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="39" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>271</v>
+        <v>475</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J22" s="1">
         <v>208</v>
@@ -5502,36 +5257,36 @@
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="39" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>338</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>273</v>
+        <v>478</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>479</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J23" s="1">
         <v>292</v>
@@ -5540,74 +5295,74 @@
         <v>700</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>587</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="39" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>482</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>229</v>
+        <v>483</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>313</v>
+        <v>484</v>
       </c>
       <c r="F24" s="1">
         <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="39" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>339</v>
+        <v>485</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>274</v>
+        <v>486</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>275</v>
+        <v>487</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J25" s="1">
         <v>686</v>
@@ -5616,36 +5371,36 @@
         <v>500</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="39" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>340</v>
+        <v>489</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>490</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>277</v>
+        <v>491</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J26" s="1">
         <v>547</v>
@@ -5654,36 +5409,36 @@
         <v>400</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="39" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J27" s="1">
         <v>257</v>
@@ -5692,36 +5447,36 @@
         <v>500</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="39" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>342</v>
+        <v>495</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>280</v>
+        <v>496</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J28" s="1">
         <v>564</v>
@@ -5730,36 +5485,36 @@
         <v>600</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>482</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="39" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>343</v>
+        <v>497</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>281</v>
+        <v>498</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>282</v>
+        <v>499</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1">
         <v>211</v>
@@ -5768,36 +5523,36 @@
         <v>200</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>475</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="39" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J30" s="1">
         <v>233</v>
@@ -5806,36 +5561,36 @@
         <v>500</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="39" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>345</v>
+        <v>502</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>504</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J31" s="1">
         <v>293</v>
@@ -5844,36 +5599,36 @@
         <v>400</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="39" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>346</v>
+        <v>505</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>285</v>
+        <v>506</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>286</v>
+        <v>507</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J32" s="1">
         <v>552</v>
@@ -5882,36 +5637,36 @@
         <v>700</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>589</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="39" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>347</v>
+        <v>509</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>288</v>
+        <v>511</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>439</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J33" s="1">
         <v>812</v>
@@ -5920,36 +5675,36 @@
         <v>700</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="39" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>348</v>
+        <v>512</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>290</v>
+        <v>514</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J34" s="1">
         <v>541</v>
@@ -5958,74 +5713,74 @@
         <v>400</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>350</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>516</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>230</v>
+        <v>517</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>314</v>
+        <v>518</v>
       </c>
       <c r="F35" s="1">
         <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="39" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>291</v>
+        <v>520</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>292</v>
+        <v>521</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J36" s="1">
         <v>441</v>
@@ -6034,36 +5789,36 @@
         <v>700</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>475</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="39" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>523</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>294</v>
+        <v>524</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J37" s="1">
         <v>875</v>
@@ -6072,36 +5827,36 @@
         <v>300</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="39" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>429</v>
+        <v>525</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>526</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>229</v>
+        <v>483</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>691</v>
@@ -6110,36 +5865,36 @@
         <v>500</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>430</v>
+        <v>527</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>296</v>
+        <v>528</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>297</v>
+        <v>529</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>439</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>572</v>
@@ -6148,36 +5903,36 @@
         <v>300</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>431</v>
+        <v>530</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>298</v>
+        <v>531</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>572</v>
@@ -6186,36 +5941,36 @@
         <v>500</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>300</v>
+        <v>534</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>301</v>
+        <v>535</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>663</v>
@@ -6224,197 +5979,197 @@
         <v>500</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>351</v>
+        <v>536</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>221</v>
+        <v>537</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>231</v>
+        <v>538</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>315</v>
+        <v>539</v>
       </c>
       <c r="F42" s="1">
         <v>27</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="39" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>352</v>
+        <v>540</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>222</v>
+        <v>541</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>232</v>
+        <v>479</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>426</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="F43" s="1">
         <v>38</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>353</v>
+        <v>543</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>233</v>
+        <v>544</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="F44" s="1">
         <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>354</v>
+        <v>546</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>234</v>
+        <v>548</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>318</v>
+        <v>549</v>
       </c>
       <c r="F45" s="1">
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="39" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>225</v>
+        <v>551</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>235</v>
+        <v>552</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>319</v>
+        <v>553</v>
       </c>
       <c r="F46" s="1">
         <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>585</v>
+        <v>427</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606E67EB-3710-E942-B2B2-0BBE808B5728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -6434,33 +6189,34 @@
     <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
     <col min="3" max="7" width="29.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>303</v>
+        <v>554</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>555</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>305</v>
+        <v>557</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>306</v>
+        <v>558</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>307</v>
+        <v>559</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>308</v>
+        <v>560</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -6469,22 +6225,22 @@
         <v>562</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>452</v>
+        <v>565</v>
       </c>
       <c r="H2" s="1">
         <v>200</v>
@@ -6492,25 +6248,25 @@
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -6518,25 +6274,25 @@
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
@@ -6544,25 +6300,25 @@
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>455</v>
+        <v>575</v>
       </c>
       <c r="H5" s="1">
         <v>300</v>
@@ -6570,25 +6326,25 @@
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
       <c r="H6" s="1">
         <v>400</v>
@@ -6596,25 +6352,25 @@
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
@@ -6622,25 +6378,25 @@
     </row>
     <row r="8" spans="1:9" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="H8" s="1">
         <v>300</v>
@@ -6648,25 +6404,25 @@
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>458</v>
+        <v>586</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -6692,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619C3A9-6514-A946-8697-951A69ADFCED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6701,15 +6457,16 @@
   <cols>
     <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="237.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>302</v>
+        <v>555</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6719,87 +6476,87 @@
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="39" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="39" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>601</v>
